--- a/Excels/Write Rand.xlsx
+++ b/Excels/Write Rand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanb\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanb\OneDrive\Desktop\BMark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF2DA6F-8296-4206-84FD-4A3D577A7366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711B62D-F15F-4C7F-825A-2A3F93EB4B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A0B71D-9B6D-4BA9-809E-E1D582CB16F2}"/>
   </bookViews>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -214,14 +214,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1C098-2EDA-4439-97F4-D0D2C1B9B3D1}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +649,7 @@
         <f>(C4-H4)^2</f>
         <v>8742.027382369628</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K4" s="1">
@@ -687,7 +688,7 @@
         <f t="shared" ref="I5:I24" si="2">(C5-H5)^2</f>
         <v>287.34285856008779</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K5" s="1">
@@ -726,7 +727,7 @@
         <f t="shared" si="2"/>
         <v>19192.447593036304</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K6" s="1">
@@ -765,7 +766,7 @@
         <f t="shared" si="2"/>
         <v>16.001523845804584</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K7" s="1">
@@ -804,7 +805,7 @@
         <f t="shared" si="2"/>
         <v>428.24951946484885</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K8" s="1">
@@ -843,7 +844,7 @@
         <f t="shared" si="2"/>
         <v>4.4655739886619159</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K9" s="1">
@@ -882,7 +883,7 @@
         <f t="shared" si="2"/>
         <v>297.01732136961209</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K10" s="1">
@@ -921,7 +922,7 @@
         <f t="shared" si="2"/>
         <v>308.36028956008903</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K11" s="1">
@@ -960,7 +961,7 @@
         <f t="shared" si="2"/>
         <v>25.282699464851728</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K12" s="1">
@@ -999,7 +1000,7 @@
         <f t="shared" si="2"/>
         <v>318.66500141723174</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K13" s="1">
@@ -1038,7 +1039,7 @@
         <f t="shared" si="2"/>
         <v>449.32088408389819</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K14" s="1">
@@ -1077,7 +1078,7 @@
         <f t="shared" si="2"/>
         <v>5.6035907505664735</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K15" s="1">
@@ -1116,7 +1117,7 @@
         <f t="shared" si="2"/>
         <v>356.1218299886595</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K16" s="1">
@@ -1155,7 +1156,7 @@
         <f t="shared" si="2"/>
         <v>383.14893279818222</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K17" s="1">
@@ -1194,7 +1195,7 @@
         <f t="shared" si="2"/>
         <v>1196.4120977981825</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K18" s="1">
@@ -1233,7 +1234,7 @@
         <f t="shared" si="2"/>
         <v>312.05895456008761</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K19" s="1">
@@ -1272,7 +1273,7 @@
         <f t="shared" si="2"/>
         <v>755.98549932199296</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K20" s="1">
@@ -1288,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>555.93700000000001</v>
+        <v>490</v>
       </c>
       <c r="D21" s="2">
         <v>410.67</v>
@@ -1298,7 +1299,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>123.54155555555555</v>
+        <v>108.88888888888889</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="1"/>
@@ -1309,9 +1310,9 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>8990.8685219410327</v>
-      </c>
-      <c r="J21" s="13">
+        <v>834.23869208389624</v>
+      </c>
+      <c r="J21" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K21" s="1">
@@ -1350,7 +1351,7 @@
         <f t="shared" si="2"/>
         <v>74222.36005813157</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K22" s="1">
@@ -1389,7 +1390,7 @@
         <f t="shared" si="2"/>
         <v>656.54789017913527</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K23" s="1">
@@ -1405,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="6">
-        <v>601.95500000000004</v>
+        <v>495</v>
       </c>
       <c r="D24" s="6">
         <v>323</v>
@@ -1415,7 +1416,7 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>133.76777777777781</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="1"/>
@@ -1426,9 +1427,9 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>19835.395896607701</v>
-      </c>
-      <c r="J24" s="13">
+        <v>1148.0705968458003</v>
+      </c>
+      <c r="J24" s="10">
         <v>417.50342857142857</v>
       </c>
       <c r="K24" s="1">
@@ -1442,7 +1443,7 @@
       </c>
       <c r="G28" s="9">
         <f>AVERAGE(C4:C24)</f>
-        <v>461.11680952380959</v>
+        <v>452.88385714285721</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1451,12 +1452,12 @@
       </c>
       <c r="G29" s="9">
         <f>SQRT(SUM(I4:I24)/21)</f>
-        <v>80.706311760970465</v>
+        <v>72.354855956307816</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F31" s="8" t="s">

--- a/Excels/Write Rand.xlsx
+++ b/Excels/Write Rand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanb\OneDrive\Desktop\BMark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanb\OneDrive\Desktop\BMark\CCHW3\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711B62D-F15F-4C7F-825A-2A3F93EB4B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA8821F-6525-4E1C-90B1-14411DA5767C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A0B71D-9B6D-4BA9-809E-E1D582CB16F2}"/>
   </bookViews>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,23 +206,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +543,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,32 +559,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -625,20 +628,20 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="15">
         <v>367.61799999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="14">
         <v>368.23099999999999</v>
       </c>
-      <c r="E4" s="7">
-        <v>450</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
+        <v>450</v>
+      </c>
+      <c r="F4" s="6">
         <f>(C4/E4)*100</f>
         <v>81.692888888888888</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>(D4/E4)*100</f>
         <v>81.829111111111104</v>
       </c>
@@ -649,7 +652,7 @@
         <f>(C4-H4)^2</f>
         <v>8742.027382369628</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K4" s="1">
@@ -664,22 +667,22 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="15">
         <v>478.06799999999998</v>
       </c>
-      <c r="D5" s="6">
-        <v>461</v>
-      </c>
-      <c r="E5" s="7">
-        <v>450</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="14">
+        <v>468</v>
+      </c>
+      <c r="E5" s="6">
+        <v>450</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F24" si="0">(C5/E5)*100</f>
         <v>106.23733333333334</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G24" si="1">(D5/E5)*100</f>
-        <v>102.44444444444444</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2">
         <v>461.11680952380959</v>
@@ -688,12 +691,12 @@
         <f t="shared" ref="I5:I24" si="2">(C5-H5)^2</f>
         <v>287.34285856008779</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K24" si="3">(D5-J5)^2</f>
-        <v>1891.9517260408163</v>
+        <v>2549.9037260408163</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -703,20 +706,20 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <v>322.58</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="14">
         <v>459.22500000000002</v>
       </c>
-      <c r="E6" s="7">
-        <v>450</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6">
+        <v>450</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>71.684444444444438</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>102.05</v>
       </c>
@@ -727,7 +730,7 @@
         <f t="shared" si="2"/>
         <v>19192.447593036304</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K6" s="1">
@@ -742,22 +745,22 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <v>465.11700000000002</v>
       </c>
-      <c r="D7" s="6">
-        <v>310</v>
-      </c>
-      <c r="E7" s="7">
-        <v>450</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="14">
+        <v>449</v>
+      </c>
+      <c r="E7" s="6">
+        <v>450</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>103.35933333333334</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>68.888888888888886</v>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>99.777777777777771</v>
       </c>
       <c r="H7" s="2">
         <v>461.11680952380959</v>
@@ -766,12 +769,12 @@
         <f t="shared" si="2"/>
         <v>16.001523845804584</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>11556.987154612245</v>
+        <v>992.03401175510203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -781,20 +784,20 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <v>481.81099999999998</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="14">
         <v>463.6</v>
       </c>
-      <c r="E8" s="7">
-        <v>450</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>450</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>107.0691111111111</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>103.02222222222224</v>
       </c>
@@ -805,7 +808,7 @@
         <f t="shared" si="2"/>
         <v>428.24951946484885</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K8" s="1">
@@ -820,20 +823,20 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="15">
         <v>463.23</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="14">
         <v>452.34800000000001</v>
       </c>
-      <c r="E9" s="7">
-        <v>450</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="6">
+        <v>450</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>102.94000000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>100.52177777777777</v>
       </c>
@@ -844,7 +847,7 @@
         <f t="shared" si="2"/>
         <v>4.4655739886619159</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K9" s="1">
@@ -859,22 +862,22 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="15">
         <v>478.351</v>
       </c>
-      <c r="D10" s="2">
-        <v>353.77</v>
-      </c>
-      <c r="E10" s="7">
-        <v>450</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="15">
+        <v>462</v>
+      </c>
+      <c r="E10" s="6">
+        <v>450</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>106.30022222222222</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>78.615555555555545</v>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>102.66666666666666</v>
       </c>
       <c r="H10" s="2">
         <v>461.11680952380959</v>
@@ -883,12 +886,12 @@
         <f t="shared" si="2"/>
         <v>297.01732136961209</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>4061.9499174693901</v>
+        <v>1979.9448688979592</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -898,22 +901,22 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="15">
         <v>478.67700000000002</v>
       </c>
-      <c r="D11" s="2">
-        <v>419.2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>450</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="D11" s="15">
+        <v>463.3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>450</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>106.37266666666667</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>93.155555555555551</v>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>102.95555555555555</v>
       </c>
       <c r="H11" s="2">
         <v>461.11680952380959</v>
@@ -922,12 +925,12 @@
         <f t="shared" si="2"/>
         <v>308.36028956008903</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>2.8783546122448591</v>
+        <v>2097.3259546122458</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -937,22 +940,22 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="15">
         <v>466.14499999999998</v>
       </c>
-      <c r="D12" s="2">
-        <v>474.66</v>
-      </c>
-      <c r="E12" s="7">
-        <v>450</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="15">
+        <v>465.7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>450</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>103.58777777777777</v>
       </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>105.47999999999999</v>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>103.48888888888889</v>
       </c>
       <c r="H12" s="2">
         <v>461.11680952380959</v>
@@ -961,12 +964,12 @@
         <f t="shared" si="2"/>
         <v>25.282699464851728</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>3266.8736574693908</v>
+        <v>2322.9094974693867</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -976,22 +979,22 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="15">
         <v>478.96800000000002</v>
       </c>
-      <c r="D13" s="2">
-        <v>400.87</v>
-      </c>
-      <c r="E13" s="7">
-        <v>450</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="15">
+        <v>462.87</v>
+      </c>
+      <c r="E13" s="6">
+        <v>450</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>106.43733333333334</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>89.082222222222214</v>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>102.86</v>
       </c>
       <c r="H13" s="2">
         <v>461.11680952380959</v>
@@ -1000,12 +1003,12 @@
         <f t="shared" si="2"/>
         <v>318.66500141723174</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>276.6709460408162</v>
+        <v>2058.1258031836737</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1015,22 +1018,22 @@
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="15">
         <v>482.31400000000002</v>
       </c>
-      <c r="D14" s="2">
-        <v>436.11</v>
-      </c>
-      <c r="E14" s="7">
-        <v>450</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="15">
+        <v>457</v>
+      </c>
+      <c r="E14" s="6">
+        <v>450</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>107.1808888888889</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>96.913333333333341</v>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>101.55555555555556</v>
       </c>
       <c r="H14" s="2">
         <v>461.11680952380959</v>
@@ -1039,12 +1042,12 @@
         <f t="shared" si="2"/>
         <v>449.32088408389819</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>346.2045003265311</v>
+        <v>1559.9791546122449</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1054,22 +1057,22 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="15">
         <v>463.48399999999998</v>
       </c>
-      <c r="D15" s="2">
-        <v>439.22</v>
-      </c>
-      <c r="E15" s="7">
-        <v>450</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="15">
+        <v>459.78</v>
+      </c>
+      <c r="E15" s="6">
+        <v>450</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>102.99644444444445</v>
       </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>97.604444444444454</v>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>102.17333333333333</v>
       </c>
       <c r="H15" s="2">
         <v>461.11680952380959</v>
@@ -1078,12 +1081,12 @@
         <f t="shared" si="2"/>
         <v>5.6035907505664735</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>471.60947461224606</v>
+        <v>1787.3084917550998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1093,36 +1096,36 @@
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
-        <v>479.988</v>
-      </c>
-      <c r="D16" s="2">
-        <v>412.12</v>
-      </c>
-      <c r="E16" s="7">
-        <v>450</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>106.664</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>91.582222222222214</v>
+      <c r="C16" s="15">
+        <v>434</v>
+      </c>
+      <c r="D16" s="15">
+        <v>466</v>
+      </c>
+      <c r="E16" s="6">
+        <v>450</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>96.444444444444443</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>103.55555555555556</v>
       </c>
       <c r="H16" s="2">
         <v>461.11680952380959</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>356.1218299886595</v>
-      </c>
-      <c r="J16" s="10">
+        <v>735.32135875057065</v>
+      </c>
+      <c r="J16" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>28.981303183673422</v>
+        <v>2351.9174403265306</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1132,36 +1135,36 @@
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
-        <v>480.69099999999997</v>
-      </c>
-      <c r="D17" s="2">
-        <v>415.43</v>
-      </c>
-      <c r="E17" s="7">
-        <v>450</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>106.82022222222223</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>92.317777777777778</v>
+      <c r="C17" s="15">
+        <v>465</v>
+      </c>
+      <c r="D17" s="15">
+        <v>463.33</v>
+      </c>
+      <c r="E17" s="6">
+        <v>450</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>102.96222222222222</v>
       </c>
       <c r="H17" s="2">
         <v>461.11680952380959</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>383.14893279818222</v>
-      </c>
-      <c r="J17" s="10">
+        <v>15.079168274375879</v>
+      </c>
+      <c r="J17" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>4.2991060408162989</v>
+        <v>2100.0746488979576</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1171,36 +1174,36 @@
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
-        <v>495.70600000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <v>450.25</v>
-      </c>
-      <c r="E18" s="7">
-        <v>450</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>110.15688888888889</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>100.05555555555557</v>
+      <c r="C18" s="15">
+        <v>441</v>
+      </c>
+      <c r="D18" s="15">
+        <v>461.25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>450</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>102.49999999999999</v>
       </c>
       <c r="H18" s="2">
         <v>461.11680952380959</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>1196.4120977981825</v>
-      </c>
-      <c r="J18" s="10">
+        <v>404.68602541723635</v>
+      </c>
+      <c r="J18" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>1072.3379403265305</v>
+        <v>1913.762511755102</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1210,20 +1213,20 @@
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
-        <v>478.78199999999998</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="15">
+        <v>481</v>
+      </c>
+      <c r="D19" s="15">
         <v>470.08</v>
       </c>
-      <c r="E19" s="7">
-        <v>450</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>106.396</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E19" s="6">
+        <v>450</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>106.8888888888889</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>104.46222222222221</v>
       </c>
@@ -1232,9 +1235,9 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>312.05895456008761</v>
-      </c>
-      <c r="J19" s="10">
+        <v>395.34126351246891</v>
+      </c>
+      <c r="J19" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K19" s="1">
@@ -1249,36 +1252,36 @@
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2">
-        <v>488.61200000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <v>414.65</v>
-      </c>
-      <c r="E20" s="7">
-        <v>450</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>108.58044444444445</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>92.144444444444446</v>
+      <c r="C20" s="15">
+        <v>459</v>
+      </c>
+      <c r="D20" s="15">
+        <v>455</v>
+      </c>
+      <c r="E20" s="6">
+        <v>450</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>101.11111111111111</v>
       </c>
       <c r="H20" s="2">
         <v>461.11680952380959</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>755.98549932199296</v>
-      </c>
-      <c r="J20" s="10">
+        <v>4.4808825600909961</v>
+      </c>
+      <c r="J20" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>8.1420546122450279</v>
+        <v>1405.9928688979592</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1288,36 +1291,36 @@
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2">
-        <v>490</v>
-      </c>
-      <c r="D21" s="2">
-        <v>410.67</v>
-      </c>
-      <c r="E21" s="7">
-        <v>450</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>108.88888888888889</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>91.26</v>
+      <c r="C21" s="15">
+        <v>457</v>
+      </c>
+      <c r="D21" s="15">
+        <v>451</v>
+      </c>
+      <c r="E21" s="6">
+        <v>450</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>101.55555555555556</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>100.22222222222221</v>
       </c>
       <c r="H21" s="2">
         <v>461.11680952380959</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>834.23869208389624</v>
-      </c>
-      <c r="J21" s="10">
+        <v>16.948120655329369</v>
+      </c>
+      <c r="J21" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>46.695746040816111</v>
+        <v>1122.0202974693877</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1327,20 +1330,20 @@
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="6">
-        <v>188.679</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="14">
+        <v>465</v>
+      </c>
+      <c r="D22" s="14">
         <v>461.93799999999999</v>
       </c>
-      <c r="E22" s="7">
-        <v>450</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>41.928666666666672</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="E22" s="6">
+        <v>450</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>102.65288888888888</v>
       </c>
@@ -1349,9 +1352,9 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>74222.36005813157</v>
-      </c>
-      <c r="J22" s="10">
+        <v>15.079168274375879</v>
+      </c>
+      <c r="J22" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K22" s="1">
@@ -1366,20 +1369,20 @@
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="6">
-        <v>486.74</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="14">
+        <v>323</v>
+      </c>
+      <c r="D23" s="14">
         <v>371.2</v>
       </c>
-      <c r="E23" s="7">
-        <v>450</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>108.16444444444444</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E23" s="6">
+        <v>450</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>71.777777777777771</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>82.488888888888894</v>
       </c>
@@ -1388,9 +1391,9 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>656.54789017913527</v>
-      </c>
-      <c r="J23" s="10">
+        <v>19076.2530730363</v>
+      </c>
+      <c r="J23" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K23" s="1">
@@ -1405,20 +1408,20 @@
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6">
-        <v>495</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="14">
+        <v>311.67</v>
+      </c>
+      <c r="D24" s="14">
         <v>323</v>
       </c>
-      <c r="E24" s="7">
-        <v>450</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="E24" s="6">
+        <v>450</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>69.260000000000005</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>71.777777777777771</v>
       </c>
@@ -1427,9 +1430,9 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>1148.0705968458003</v>
-      </c>
-      <c r="J24" s="10">
+        <v>22334.348876845819</v>
+      </c>
+      <c r="J24" s="9">
         <v>417.50342857142857</v>
       </c>
       <c r="K24" s="1">
@@ -1438,43 +1441,43 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <f>AVERAGE(C4:C24)</f>
-        <v>452.88385714285721</v>
+        <v>441.09680952380961</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <f>SQRT(SUM(I4:I24)/21)</f>
-        <v>72.354855956307816</v>
+        <v>58.988425892687246</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <f>AVERAGE(D4:D24)</f>
-        <v>417.50342857142857</v>
+        <v>445.42152380952382</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f>SQRT(SUM(K4:K24)/21)</f>
-        <v>46.983641624933</v>
+        <v>47.5907311811212</v>
       </c>
     </row>
   </sheetData>
